--- a/Advanced_Data_Analysis_(Add_ins)/1_Analysis_Add-ins.xlsx
+++ b/Advanced_Data_Analysis_(Add_ins)/1_Analysis_Add-ins.xlsx
@@ -1,61 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\6_Advanced_Data_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenpankiv/Documents/data_analytics_excel/Excel_Analytics/Advanced_Data_Analysis_(Add_ins)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C309F530-9477-46F8-BC41-B3020D3E60A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989A84B2-1349-F242-AE26-B3C4307BD3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18336" windowHeight="10428" xr2:uid="{6C37AC85-509F-4D10-9DB1-F70D16D6FBAB}"/>
+    <workbookView xWindow="2940" yWindow="820" windowWidth="22360" windowHeight="16600" firstSheet="2" activeTab="2" xr2:uid="{6C37AC85-509F-4D10-9DB1-F70D16D6FBAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Forecast_Original" sheetId="7" r:id="rId1"/>
     <sheet name="Forecast_Final" sheetId="8" r:id="rId2"/>
-    <sheet name="What-If_Analysis" sheetId="3" r:id="rId3"/>
-    <sheet name="Scenario_Summary" sheetId="12" r:id="rId4"/>
-    <sheet name="Answer_Report" sheetId="13" r:id="rId5"/>
-    <sheet name="Limits_Report" sheetId="15" r:id="rId6"/>
+    <sheet name="Answer Report 1" sheetId="16" r:id="rId3"/>
+    <sheet name="Sensitivity Report 1" sheetId="17" r:id="rId4"/>
+    <sheet name="Limits Report 1" sheetId="18" r:id="rId5"/>
+    <sheet name="What-If_Analysis" sheetId="3" r:id="rId6"/>
+    <sheet name="Scenario_Summary" sheetId="12" r:id="rId7"/>
+    <sheet name="Answer_Report" sheetId="13" r:id="rId8"/>
+    <sheet name="Limits_Report" sheetId="15" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="base" localSheetId="2">'What-If_Analysis'!$C$3</definedName>
-    <definedName name="bonus" localSheetId="2">'What-If_Analysis'!$C$4</definedName>
-    <definedName name="raise" localSheetId="2">'What-If_Analysis'!$C$5</definedName>
-    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'What-If_Analysis'!$C$4</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'What-If_Analysis'!$C$5</definedName>
-    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">0.25</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">0.035</definedName>
-    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="base" localSheetId="5">'What-If_Analysis'!$C$3</definedName>
+    <definedName name="bonus" localSheetId="5">'What-If_Analysis'!$C$4</definedName>
+    <definedName name="raise" localSheetId="5">'What-If_Analysis'!$C$5</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'What-If_Analysis'!$C$4:$C$5</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'What-If_Analysis'!$C$4</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'What-If_Analysis'!$C$5</definedName>
+    <definedName name="solver_lin" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'What-If_Analysis'!$C$14</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">0.2</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">0.05</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">640000</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">2</definedName>
     <definedName name="TotalSalary">'What-If_Analysis'!$C$14</definedName>
     <definedName name="Year0">'What-If_Analysis'!$C$9</definedName>
     <definedName name="Year1">'What-If_Analysis'!$C$10</definedName>
@@ -63,7 +69,7 @@
     <definedName name="Year3">'What-If_Analysis'!$C$12</definedName>
     <definedName name="Year4">'What-If_Analysis'!$C$13</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="94">
   <si>
     <t>Base Salary</t>
   </si>
@@ -320,18 +326,67 @@
   <si>
     <t>Max Likely</t>
   </si>
+  <si>
+    <t>Microsoft Excel 16.98 Answer Report</t>
+  </si>
+  <si>
+    <t>Report Created: 02/08/2025 12:56:10</t>
+  </si>
+  <si>
+    <t>Result: Solver found a solution.  All constraints and optimality conditions are satisfied.</t>
+  </si>
+  <si>
+    <t>Solution Time: 30065010.87 Seconds.</t>
+  </si>
+  <si>
+    <t>Iterations: 3 Subproblems: 0</t>
+  </si>
+  <si>
+    <t>Max Time Unlimited, Iterations Unlimited, Precision 0.000001, Use Automatic Scaling</t>
+  </si>
+  <si>
+    <t>Convergence 0.0001, Population Size 100, Random Seed 0, Derivatives Forward, Require Bounds</t>
+  </si>
+  <si>
+    <t>$C$4&lt;=0.2</t>
+  </si>
+  <si>
+    <t>$C$5&lt;=0.05</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.98 Sensitivity Report</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Reduced</t>
+  </si>
+  <si>
+    <t>Gradient</t>
+  </si>
+  <si>
+    <t>Lagrange</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.98 Limits Report</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;£&quot;* #,##0_);_(&quot;£&quot;* \(#,##0\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +467,13 @@
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -875,13 +937,13 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -893,25 +955,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -934,21 +996,21 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -967,21 +1029,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -997,7 +1059,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1005,11 +1067,27 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1026,7 +1104,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
+      <numFmt numFmtId="167" formatCode="[$-409]d\-mmm;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1044,7 +1122,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8440,14 +8518,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFEF1D-F95D-44A2-B75D-9B328BDF73A0}">
   <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.9453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
@@ -8455,7 +8533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>44927</v>
       </c>
@@ -8463,7 +8541,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>44928</v>
       </c>
@@ -8471,7 +8549,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>44929</v>
       </c>
@@ -8479,7 +8557,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>44930</v>
       </c>
@@ -8487,7 +8565,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>44931</v>
       </c>
@@ -8495,7 +8573,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>44932</v>
       </c>
@@ -8503,7 +8581,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>44933</v>
       </c>
@@ -8511,7 +8589,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>44934</v>
       </c>
@@ -8519,7 +8597,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>44935</v>
       </c>
@@ -8527,7 +8605,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>44936</v>
       </c>
@@ -8535,7 +8613,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>44937</v>
       </c>
@@ -8543,7 +8621,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>44938</v>
       </c>
@@ -8551,7 +8629,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>44939</v>
       </c>
@@ -8559,7 +8637,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>44940</v>
       </c>
@@ -8567,7 +8645,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>44941</v>
       </c>
@@ -8575,7 +8653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>44942</v>
       </c>
@@ -8583,7 +8661,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>44943</v>
       </c>
@@ -8591,7 +8669,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>44944</v>
       </c>
@@ -8599,7 +8677,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>44945</v>
       </c>
@@ -8607,7 +8685,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>44946</v>
       </c>
@@ -8615,7 +8693,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>44947</v>
       </c>
@@ -8623,7 +8701,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>44948</v>
       </c>
@@ -8631,7 +8709,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>44949</v>
       </c>
@@ -8639,7 +8717,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>44950</v>
       </c>
@@ -8647,7 +8725,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>44951</v>
       </c>
@@ -8655,7 +8733,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>44952</v>
       </c>
@@ -8663,7 +8741,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>44953</v>
       </c>
@@ -8671,7 +8749,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>44954</v>
       </c>
@@ -8679,7 +8757,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>44955</v>
       </c>
@@ -8687,7 +8765,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>44956</v>
       </c>
@@ -8695,7 +8773,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>44957</v>
       </c>
@@ -8703,7 +8781,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>44958</v>
       </c>
@@ -8711,7 +8789,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>44959</v>
       </c>
@@ -8719,7 +8797,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>44960</v>
       </c>
@@ -8727,7 +8805,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>44961</v>
       </c>
@@ -8735,7 +8813,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>44962</v>
       </c>
@@ -8743,7 +8821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>44963</v>
       </c>
@@ -8751,7 +8829,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>44964</v>
       </c>
@@ -8759,7 +8837,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>44965</v>
       </c>
@@ -8767,7 +8845,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>44966</v>
       </c>
@@ -8775,7 +8853,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>44967</v>
       </c>
@@ -8783,7 +8861,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>44968</v>
       </c>
@@ -8791,7 +8869,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>44969</v>
       </c>
@@ -8799,7 +8877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>44970</v>
       </c>
@@ -8807,7 +8885,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>44971</v>
       </c>
@@ -8815,7 +8893,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>44972</v>
       </c>
@@ -8823,7 +8901,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>44973</v>
       </c>
@@ -8831,7 +8909,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>44974</v>
       </c>
@@ -8839,7 +8917,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>44975</v>
       </c>
@@ -8847,7 +8925,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>44976</v>
       </c>
@@ -8855,7 +8933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>44977</v>
       </c>
@@ -8863,7 +8941,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>44978</v>
       </c>
@@ -8871,7 +8949,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>44979</v>
       </c>
@@ -8879,7 +8957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>44980</v>
       </c>
@@ -8887,7 +8965,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>44981</v>
       </c>
@@ -8895,7 +8973,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>44982</v>
       </c>
@@ -8903,7 +8981,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>44983</v>
       </c>
@@ -8911,7 +8989,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>44984</v>
       </c>
@@ -8919,7 +8997,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>44985</v>
       </c>
@@ -8927,7 +9005,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>44986</v>
       </c>
@@ -8935,7 +9013,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>44987</v>
       </c>
@@ -8943,7 +9021,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>44988</v>
       </c>
@@ -8951,7 +9029,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>44989</v>
       </c>
@@ -8959,7 +9037,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>44990</v>
       </c>
@@ -8967,7 +9045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>44991</v>
       </c>
@@ -8975,7 +9053,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>44992</v>
       </c>
@@ -8983,7 +9061,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>44993</v>
       </c>
@@ -8991,7 +9069,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>44994</v>
       </c>
@@ -8999,7 +9077,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>44995</v>
       </c>
@@ -9007,7 +9085,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>44996</v>
       </c>
@@ -9015,7 +9093,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>44997</v>
       </c>
@@ -9023,7 +9101,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>44998</v>
       </c>
@@ -9031,7 +9109,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>44999</v>
       </c>
@@ -9039,7 +9117,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>45000</v>
       </c>
@@ -9047,7 +9125,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>45001</v>
       </c>
@@ -9055,7 +9133,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>45002</v>
       </c>
@@ -9063,7 +9141,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>45003</v>
       </c>
@@ -9071,7 +9149,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>45004</v>
       </c>
@@ -9079,7 +9157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>45005</v>
       </c>
@@ -9087,7 +9165,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>45006</v>
       </c>
@@ -9095,7 +9173,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>45007</v>
       </c>
@@ -9103,7 +9181,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>45008</v>
       </c>
@@ -9111,7 +9189,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>45009</v>
       </c>
@@ -9119,7 +9197,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>45010</v>
       </c>
@@ -9127,7 +9205,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>45011</v>
       </c>
@@ -9135,7 +9213,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>45012</v>
       </c>
@@ -9143,7 +9221,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>45013</v>
       </c>
@@ -9151,7 +9229,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>45014</v>
       </c>
@@ -9159,7 +9237,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>45015</v>
       </c>
@@ -9167,7 +9245,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>45016</v>
       </c>
@@ -9175,7 +9253,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>45017</v>
       </c>
@@ -9183,7 +9261,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>45018</v>
       </c>
@@ -9191,7 +9269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>45019</v>
       </c>
@@ -9199,7 +9277,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>45020</v>
       </c>
@@ -9207,7 +9285,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>45021</v>
       </c>
@@ -9215,7 +9293,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>45022</v>
       </c>
@@ -9223,7 +9301,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>45023</v>
       </c>
@@ -9231,7 +9309,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>45024</v>
       </c>
@@ -9239,7 +9317,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>45025</v>
       </c>
@@ -9247,7 +9325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>45026</v>
       </c>
@@ -9255,7 +9333,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
         <v>45027</v>
       </c>
@@ -9263,7 +9341,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>45028</v>
       </c>
@@ -9271,7 +9349,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
         <v>45029</v>
       </c>
@@ -9279,7 +9357,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
         <v>45030</v>
       </c>
@@ -9287,7 +9365,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
         <v>45031</v>
       </c>
@@ -9295,7 +9373,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <v>45032</v>
       </c>
@@ -9303,7 +9381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
         <v>45033</v>
       </c>
@@ -9311,7 +9389,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
         <v>45034</v>
       </c>
@@ -9319,7 +9397,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="8">
         <v>45035</v>
       </c>
@@ -9327,7 +9405,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
         <v>45036</v>
       </c>
@@ -9335,7 +9413,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
         <v>45037</v>
       </c>
@@ -9343,7 +9421,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>45038</v>
       </c>
@@ -9351,7 +9429,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
         <v>45039</v>
       </c>
@@ -9359,7 +9437,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <v>45040</v>
       </c>
@@ -9367,7 +9445,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <v>45041</v>
       </c>
@@ -9375,7 +9453,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>45042</v>
       </c>
@@ -9383,7 +9461,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <v>45043</v>
       </c>
@@ -9391,7 +9469,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <v>45044</v>
       </c>
@@ -9399,7 +9477,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
         <v>45045</v>
       </c>
@@ -9407,7 +9485,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
         <v>45046</v>
       </c>
@@ -9415,7 +9493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
         <v>45047</v>
       </c>
@@ -9423,7 +9501,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <v>45048</v>
       </c>
@@ -9431,7 +9509,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
         <v>45049</v>
       </c>
@@ -9439,7 +9517,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <v>45050</v>
       </c>
@@ -9447,7 +9525,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
         <v>45051</v>
       </c>
@@ -9455,7 +9533,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <v>45052</v>
       </c>
@@ -9463,7 +9541,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
         <v>45053</v>
       </c>
@@ -9471,7 +9549,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>45054</v>
       </c>
@@ -9479,7 +9557,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
         <v>45055</v>
       </c>
@@ -9487,7 +9565,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <v>45056</v>
       </c>
@@ -9495,7 +9573,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <v>45057</v>
       </c>
@@ -9503,7 +9581,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <v>45058</v>
       </c>
@@ -9511,7 +9589,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
         <v>45059</v>
       </c>
@@ -9519,7 +9597,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <v>45060</v>
       </c>
@@ -9527,7 +9605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
         <v>45061</v>
       </c>
@@ -9535,7 +9613,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
         <v>45062</v>
       </c>
@@ -9543,7 +9621,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="8">
         <v>45063</v>
       </c>
@@ -9551,7 +9629,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
         <v>45064</v>
       </c>
@@ -9559,7 +9637,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="8">
         <v>45065</v>
       </c>
@@ -9567,7 +9645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
         <v>45066</v>
       </c>
@@ -9575,7 +9653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
         <v>45067</v>
       </c>
@@ -9583,7 +9661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="8">
         <v>45068</v>
       </c>
@@ -9591,7 +9669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="8">
         <v>45069</v>
       </c>
@@ -9599,7 +9677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="8">
         <v>45070</v>
       </c>
@@ -9607,7 +9685,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="8">
         <v>45071</v>
       </c>
@@ -9615,7 +9693,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="8">
         <v>45072</v>
       </c>
@@ -9623,7 +9701,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="8">
         <v>45073</v>
       </c>
@@ -9631,7 +9709,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="8">
         <v>45074</v>
       </c>
@@ -9639,7 +9717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="8">
         <v>45075</v>
       </c>
@@ -9647,7 +9725,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="8">
         <v>45076</v>
       </c>
@@ -9655,7 +9733,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="8">
         <v>45077</v>
       </c>
@@ -9663,7 +9741,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="8">
         <v>45078</v>
       </c>
@@ -9671,7 +9749,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="8">
         <v>45079</v>
       </c>
@@ -9679,7 +9757,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
         <v>45080</v>
       </c>
@@ -9687,7 +9765,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
         <v>45081</v>
       </c>
@@ -9695,7 +9773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
         <v>45082</v>
       </c>
@@ -9703,7 +9781,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
         <v>45083</v>
       </c>
@@ -9711,7 +9789,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="8">
         <v>45084</v>
       </c>
@@ -9719,7 +9797,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="8">
         <v>45085</v>
       </c>
@@ -9727,7 +9805,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="8">
         <v>45086</v>
       </c>
@@ -9735,7 +9813,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="8">
         <v>45087</v>
       </c>
@@ -9743,7 +9821,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="8">
         <v>45088</v>
       </c>
@@ -9751,7 +9829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="8">
         <v>45089</v>
       </c>
@@ -9759,7 +9837,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="8">
         <v>45090</v>
       </c>
@@ -9767,7 +9845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="8">
         <v>45091</v>
       </c>
@@ -9775,7 +9853,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="8">
         <v>45092</v>
       </c>
@@ -9783,7 +9861,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="8">
         <v>45093</v>
       </c>
@@ -9791,7 +9869,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="8">
         <v>45094</v>
       </c>
@@ -9799,7 +9877,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="8">
         <v>45095</v>
       </c>
@@ -9807,7 +9885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="8">
         <v>45096</v>
       </c>
@@ -9815,7 +9893,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="8">
         <v>45097</v>
       </c>
@@ -9823,7 +9901,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="8">
         <v>45098</v>
       </c>
@@ -9831,7 +9909,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="8">
         <v>45099</v>
       </c>
@@ -9839,7 +9917,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="8">
         <v>45100</v>
       </c>
@@ -9847,7 +9925,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="8">
         <v>45101</v>
       </c>
@@ -9855,7 +9933,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="8">
         <v>45102</v>
       </c>
@@ -9863,7 +9941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="8">
         <v>45103</v>
       </c>
@@ -9871,7 +9949,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="8">
         <v>45104</v>
       </c>
@@ -9879,7 +9957,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="8">
         <v>45105</v>
       </c>
@@ -9887,7 +9965,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="8">
         <v>45106</v>
       </c>
@@ -9895,7 +9973,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="8">
         <v>45107</v>
       </c>
@@ -9903,7 +9981,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="8">
         <v>45108</v>
       </c>
@@ -9911,7 +9989,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="8">
         <v>45109</v>
       </c>
@@ -9919,7 +9997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="8">
         <v>45110</v>
       </c>
@@ -9927,7 +10005,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="8">
         <v>45111</v>
       </c>
@@ -9935,7 +10013,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="8">
         <v>45112</v>
       </c>
@@ -9943,7 +10021,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="8">
         <v>45113</v>
       </c>
@@ -9951,7 +10029,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="8">
         <v>45114</v>
       </c>
@@ -9959,7 +10037,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="8">
         <v>45115</v>
       </c>
@@ -9967,7 +10045,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="8">
         <v>45116</v>
       </c>
@@ -9975,7 +10053,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="8">
         <v>45117</v>
       </c>
@@ -9983,7 +10061,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="8">
         <v>45118</v>
       </c>
@@ -9991,7 +10069,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="8">
         <v>45119</v>
       </c>
@@ -9999,7 +10077,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="8">
         <v>45120</v>
       </c>
@@ -10007,7 +10085,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="8">
         <v>45121</v>
       </c>
@@ -10015,7 +10093,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="8">
         <v>45122</v>
       </c>
@@ -10023,7 +10101,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="8">
         <v>45123</v>
       </c>
@@ -10031,7 +10109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="8">
         <v>45124</v>
       </c>
@@ -10039,7 +10117,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="8">
         <v>45125</v>
       </c>
@@ -10047,7 +10125,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="8">
         <v>45126</v>
       </c>
@@ -10055,7 +10133,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="8">
         <v>45127</v>
       </c>
@@ -10063,7 +10141,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="8">
         <v>45128</v>
       </c>
@@ -10071,7 +10149,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="8">
         <v>45129</v>
       </c>
@@ -10079,7 +10157,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="8">
         <v>45130</v>
       </c>
@@ -10087,7 +10165,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="8">
         <v>45131</v>
       </c>
@@ -10095,7 +10173,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="8">
         <v>45132</v>
       </c>
@@ -10103,7 +10181,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="8">
         <v>45133</v>
       </c>
@@ -10111,7 +10189,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="8">
         <v>45134</v>
       </c>
@@ -10119,7 +10197,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="8">
         <v>45135</v>
       </c>
@@ -10127,7 +10205,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="8">
         <v>45136</v>
       </c>
@@ -10135,7 +10213,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="8">
         <v>45137</v>
       </c>
@@ -10143,7 +10221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="8">
         <v>45138</v>
       </c>
@@ -10151,7 +10229,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="8">
         <v>45139</v>
       </c>
@@ -10159,7 +10237,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="8">
         <v>45140</v>
       </c>
@@ -10167,7 +10245,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="8">
         <v>45141</v>
       </c>
@@ -10175,7 +10253,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="8">
         <v>45142</v>
       </c>
@@ -10183,7 +10261,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="8">
         <v>45143</v>
       </c>
@@ -10191,7 +10269,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="8">
         <v>45144</v>
       </c>
@@ -10199,7 +10277,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="8">
         <v>45145</v>
       </c>
@@ -10207,7 +10285,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="8">
         <v>45146</v>
       </c>
@@ -10215,7 +10293,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="8">
         <v>45147</v>
       </c>
@@ -10223,7 +10301,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="8">
         <v>45148</v>
       </c>
@@ -10231,7 +10309,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="8">
         <v>45149</v>
       </c>
@@ -10239,7 +10317,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="8">
         <v>45150</v>
       </c>
@@ -10247,7 +10325,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="8">
         <v>45151</v>
       </c>
@@ -10255,7 +10333,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="8">
         <v>45152</v>
       </c>
@@ -10263,7 +10341,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="8">
         <v>45153</v>
       </c>
@@ -10271,7 +10349,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="8">
         <v>45154</v>
       </c>
@@ -10279,7 +10357,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="8">
         <v>45155</v>
       </c>
@@ -10287,7 +10365,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="8">
         <v>45156</v>
       </c>
@@ -10295,7 +10373,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="8">
         <v>45157</v>
       </c>
@@ -10303,7 +10381,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="8">
         <v>45158</v>
       </c>
@@ -10311,7 +10389,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="8">
         <v>45159</v>
       </c>
@@ -10319,7 +10397,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="8">
         <v>45160</v>
       </c>
@@ -10327,7 +10405,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="8">
         <v>45161</v>
       </c>
@@ -10335,7 +10413,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="8">
         <v>45162</v>
       </c>
@@ -10343,7 +10421,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="8">
         <v>45163</v>
       </c>
@@ -10351,7 +10429,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="8">
         <v>45164</v>
       </c>
@@ -10359,7 +10437,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="8">
         <v>45165</v>
       </c>
@@ -10367,7 +10445,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="8">
         <v>45166</v>
       </c>
@@ -10375,7 +10453,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="8">
         <v>45167</v>
       </c>
@@ -10383,7 +10461,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="8">
         <v>45168</v>
       </c>
@@ -10391,7 +10469,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="8">
         <v>45169</v>
       </c>
@@ -10399,7 +10477,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="8">
         <v>45170</v>
       </c>
@@ -10407,7 +10485,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="8">
         <v>45171</v>
       </c>
@@ -10415,7 +10493,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="8">
         <v>45172</v>
       </c>
@@ -10423,7 +10501,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="8">
         <v>45173</v>
       </c>
@@ -10431,7 +10509,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="8">
         <v>45174</v>
       </c>
@@ -10439,7 +10517,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="8">
         <v>45175</v>
       </c>
@@ -10447,7 +10525,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="8">
         <v>45176</v>
       </c>
@@ -10455,7 +10533,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="8">
         <v>45177</v>
       </c>
@@ -10463,7 +10541,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="8">
         <v>45178</v>
       </c>
@@ -10471,7 +10549,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="8">
         <v>45179</v>
       </c>
@@ -10479,7 +10557,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="8">
         <v>45180</v>
       </c>
@@ -10487,7 +10565,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="8">
         <v>45181</v>
       </c>
@@ -10495,7 +10573,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="8">
         <v>45182</v>
       </c>
@@ -10503,7 +10581,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="8">
         <v>45183</v>
       </c>
@@ -10511,7 +10589,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="8">
         <v>45184</v>
       </c>
@@ -10519,7 +10597,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="8">
         <v>45185</v>
       </c>
@@ -10527,7 +10605,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="8">
         <v>45186</v>
       </c>
@@ -10535,7 +10613,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="8">
         <v>45187</v>
       </c>
@@ -10543,7 +10621,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="8">
         <v>45188</v>
       </c>
@@ -10551,7 +10629,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="8">
         <v>45189</v>
       </c>
@@ -10559,7 +10637,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="8">
         <v>45190</v>
       </c>
@@ -10567,7 +10645,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="8">
         <v>45191</v>
       </c>
@@ -10575,7 +10653,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="8">
         <v>45192</v>
       </c>
@@ -10583,7 +10661,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="8">
         <v>45193</v>
       </c>
@@ -10591,7 +10669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="8">
         <v>45194</v>
       </c>
@@ -10599,7 +10677,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="8">
         <v>45195</v>
       </c>
@@ -10607,7 +10685,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="8">
         <v>45196</v>
       </c>
@@ -10615,7 +10693,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="8">
         <v>45197</v>
       </c>
@@ -10623,7 +10701,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="8">
         <v>45198</v>
       </c>
@@ -10631,7 +10709,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="8">
         <v>45199</v>
       </c>
@@ -10639,7 +10717,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="8">
         <v>45200</v>
       </c>
@@ -10647,7 +10725,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="8">
         <v>45201</v>
       </c>
@@ -10655,7 +10733,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="8">
         <v>45202</v>
       </c>
@@ -10663,7 +10741,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="8">
         <v>45203</v>
       </c>
@@ -10671,7 +10749,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="8">
         <v>45204</v>
       </c>
@@ -10679,7 +10757,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="8">
         <v>45205</v>
       </c>
@@ -10687,7 +10765,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="8">
         <v>45206</v>
       </c>
@@ -10695,7 +10773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="8">
         <v>45207</v>
       </c>
@@ -10703,7 +10781,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="8">
         <v>45208</v>
       </c>
@@ -10711,7 +10789,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="8">
         <v>45209</v>
       </c>
@@ -10719,7 +10797,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="8">
         <v>45210</v>
       </c>
@@ -10727,7 +10805,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="8">
         <v>45211</v>
       </c>
@@ -10735,7 +10813,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="8">
         <v>45212</v>
       </c>
@@ -10743,7 +10821,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="8">
         <v>45213</v>
       </c>
@@ -10751,7 +10829,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="8">
         <v>45214</v>
       </c>
@@ -10759,7 +10837,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="8">
         <v>45215</v>
       </c>
@@ -10767,7 +10845,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="8">
         <v>45216</v>
       </c>
@@ -10775,7 +10853,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="8">
         <v>45217</v>
       </c>
@@ -10783,7 +10861,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="8">
         <v>45218</v>
       </c>
@@ -10791,7 +10869,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="8">
         <v>45219</v>
       </c>
@@ -10799,7 +10877,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="8">
         <v>45220</v>
       </c>
@@ -10807,7 +10885,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="8">
         <v>45221</v>
       </c>
@@ -10815,7 +10893,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="8">
         <v>45222</v>
       </c>
@@ -10823,7 +10901,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="8">
         <v>45223</v>
       </c>
@@ -10831,7 +10909,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="8">
         <v>45224</v>
       </c>
@@ -10839,7 +10917,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="8">
         <v>45225</v>
       </c>
@@ -10847,7 +10925,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="8">
         <v>45226</v>
       </c>
@@ -10855,7 +10933,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="8">
         <v>45227</v>
       </c>
@@ -10863,7 +10941,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="8">
         <v>45228</v>
       </c>
@@ -10871,7 +10949,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="8">
         <v>45229</v>
       </c>
@@ -10879,7 +10957,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="8">
         <v>45230</v>
       </c>
@@ -10887,7 +10965,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="8">
         <v>45231</v>
       </c>
@@ -10895,7 +10973,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="8">
         <v>45232</v>
       </c>
@@ -10903,7 +10981,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="8">
         <v>45233</v>
       </c>
@@ -10911,7 +10989,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="8">
         <v>45234</v>
       </c>
@@ -10919,7 +10997,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="8">
         <v>45235</v>
       </c>
@@ -10927,7 +11005,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="8">
         <v>45236</v>
       </c>
@@ -10935,7 +11013,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="8">
         <v>45237</v>
       </c>
@@ -10943,7 +11021,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="8">
         <v>45238</v>
       </c>
@@ -10951,7 +11029,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="8">
         <v>45239</v>
       </c>
@@ -10959,7 +11037,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="8">
         <v>45240</v>
       </c>
@@ -10967,7 +11045,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="8">
         <v>45241</v>
       </c>
@@ -10975,7 +11053,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="8">
         <v>45242</v>
       </c>
@@ -10983,7 +11061,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="8">
         <v>45243</v>
       </c>
@@ -10991,7 +11069,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="8">
         <v>45244</v>
       </c>
@@ -10999,7 +11077,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="8">
         <v>45245</v>
       </c>
@@ -11007,7 +11085,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="8">
         <v>45246</v>
       </c>
@@ -11015,7 +11093,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="8">
         <v>45247</v>
       </c>
@@ -11023,7 +11101,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="8">
         <v>45248</v>
       </c>
@@ -11031,7 +11109,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="8">
         <v>45249</v>
       </c>
@@ -11039,7 +11117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="8">
         <v>45250</v>
       </c>
@@ -11047,7 +11125,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="8">
         <v>45251</v>
       </c>
@@ -11055,7 +11133,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="8">
         <v>45252</v>
       </c>
@@ -11063,7 +11141,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="8">
         <v>45253</v>
       </c>
@@ -11071,7 +11149,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="8">
         <v>45254</v>
       </c>
@@ -11079,7 +11157,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="8">
         <v>45255</v>
       </c>
@@ -11087,7 +11165,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="8">
         <v>45256</v>
       </c>
@@ -11095,7 +11173,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="8">
         <v>45257</v>
       </c>
@@ -11103,7 +11181,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="8">
         <v>45258</v>
       </c>
@@ -11111,7 +11189,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="8">
         <v>45259</v>
       </c>
@@ -11119,7 +11197,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="8">
         <v>45260</v>
       </c>
@@ -11127,7 +11205,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="8">
         <v>45261</v>
       </c>
@@ -11135,7 +11213,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="8">
         <v>45262</v>
       </c>
@@ -11143,7 +11221,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="8">
         <v>45263</v>
       </c>
@@ -11151,7 +11229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="8">
         <v>45264</v>
       </c>
@@ -11159,7 +11237,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="8">
         <v>45265</v>
       </c>
@@ -11167,7 +11245,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="8">
         <v>45266</v>
       </c>
@@ -11175,7 +11253,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="8">
         <v>45267</v>
       </c>
@@ -11183,7 +11261,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="8">
         <v>45268</v>
       </c>
@@ -11191,7 +11269,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="8">
         <v>45269</v>
       </c>
@@ -11199,7 +11277,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="8">
         <v>45270</v>
       </c>
@@ -11207,7 +11285,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="8">
         <v>45271</v>
       </c>
@@ -11215,7 +11293,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="8">
         <v>45272</v>
       </c>
@@ -11223,7 +11301,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="8">
         <v>45273</v>
       </c>
@@ -11231,7 +11309,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="8">
         <v>45274</v>
       </c>
@@ -11239,7 +11317,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="8">
         <v>45275</v>
       </c>
@@ -11247,7 +11325,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="8">
         <v>45276</v>
       </c>
@@ -11255,7 +11333,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="8">
         <v>45277</v>
       </c>
@@ -11263,7 +11341,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="8">
         <v>45278</v>
       </c>
@@ -11271,7 +11349,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="8">
         <v>45279</v>
       </c>
@@ -11279,7 +11357,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="8">
         <v>45280</v>
       </c>
@@ -11287,7 +11365,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="8">
         <v>45281</v>
       </c>
@@ -11295,7 +11373,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="8">
         <v>45282</v>
       </c>
@@ -11303,7 +11381,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="8">
         <v>45283</v>
       </c>
@@ -11311,7 +11389,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="8">
         <v>45284</v>
       </c>
@@ -11319,7 +11397,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="8">
         <v>45285</v>
       </c>
@@ -11327,7 +11405,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="8">
         <v>45286</v>
       </c>
@@ -11335,7 +11413,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="8">
         <v>45287</v>
       </c>
@@ -11343,7 +11421,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="8">
         <v>45288</v>
       </c>
@@ -11351,7 +11429,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="8">
         <v>45289</v>
       </c>
@@ -11359,7 +11437,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="8">
         <v>45290</v>
       </c>
@@ -11367,7 +11445,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="366" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A366" s="10">
         <v>45291</v>
       </c>
@@ -11388,14 +11466,14 @@
       <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.41796875" customWidth="1"/>
-    <col min="3" max="3" width="18.578125" customWidth="1"/>
-    <col min="4" max="5" width="27.05078125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="5" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -11412,7 +11490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>44927</v>
       </c>
@@ -11420,7 +11498,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>44928</v>
       </c>
@@ -11428,7 +11506,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>44929</v>
       </c>
@@ -11436,7 +11514,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>44930</v>
       </c>
@@ -11444,7 +11522,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>44931</v>
       </c>
@@ -11452,7 +11530,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>44932</v>
       </c>
@@ -11460,7 +11538,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>44933</v>
       </c>
@@ -11468,7 +11546,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>44934</v>
       </c>
@@ -11476,7 +11554,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>44935</v>
       </c>
@@ -11484,7 +11562,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>44936</v>
       </c>
@@ -11492,7 +11570,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>44937</v>
       </c>
@@ -11500,7 +11578,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>44938</v>
       </c>
@@ -11508,7 +11586,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>44939</v>
       </c>
@@ -11516,7 +11594,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>44940</v>
       </c>
@@ -11524,7 +11602,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>44941</v>
       </c>
@@ -11532,7 +11610,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>44942</v>
       </c>
@@ -11540,7 +11618,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>44943</v>
       </c>
@@ -11548,7 +11626,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>44944</v>
       </c>
@@ -11556,7 +11634,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>44945</v>
       </c>
@@ -11564,7 +11642,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>44946</v>
       </c>
@@ -11572,7 +11650,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>44947</v>
       </c>
@@ -11580,7 +11658,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>44948</v>
       </c>
@@ -11588,7 +11666,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>44949</v>
       </c>
@@ -11596,7 +11674,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>44950</v>
       </c>
@@ -11604,7 +11682,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>44951</v>
       </c>
@@ -11612,7 +11690,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>44952</v>
       </c>
@@ -11620,7 +11698,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>44953</v>
       </c>
@@ -11628,7 +11706,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>44954</v>
       </c>
@@ -11636,7 +11714,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>44955</v>
       </c>
@@ -11644,7 +11722,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>44956</v>
       </c>
@@ -11652,7 +11730,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>44957</v>
       </c>
@@ -11660,7 +11738,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>44958</v>
       </c>
@@ -11668,7 +11746,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>44959</v>
       </c>
@@ -11676,7 +11754,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>44960</v>
       </c>
@@ -11684,7 +11762,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>44961</v>
       </c>
@@ -11692,7 +11770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>44962</v>
       </c>
@@ -11700,7 +11778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>44963</v>
       </c>
@@ -11708,7 +11786,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>44964</v>
       </c>
@@ -11716,7 +11794,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>44965</v>
       </c>
@@ -11724,7 +11802,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>44966</v>
       </c>
@@ -11732,7 +11810,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>44967</v>
       </c>
@@ -11740,7 +11818,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>44968</v>
       </c>
@@ -11748,7 +11826,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>44969</v>
       </c>
@@ -11756,7 +11834,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>44970</v>
       </c>
@@ -11764,7 +11842,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>44971</v>
       </c>
@@ -11772,7 +11850,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>44972</v>
       </c>
@@ -11780,7 +11858,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>44973</v>
       </c>
@@ -11788,7 +11866,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>44974</v>
       </c>
@@ -11796,7 +11874,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>44975</v>
       </c>
@@ -11804,7 +11882,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>44976</v>
       </c>
@@ -11812,7 +11890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
         <v>44977</v>
       </c>
@@ -11820,7 +11898,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>44978</v>
       </c>
@@ -11828,7 +11906,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
         <v>44979</v>
       </c>
@@ -11836,7 +11914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>44980</v>
       </c>
@@ -11844,7 +11922,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
         <v>44981</v>
       </c>
@@ -11852,7 +11930,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
         <v>44982</v>
       </c>
@@ -11860,7 +11938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
         <v>44983</v>
       </c>
@@ -11868,7 +11946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
         <v>44984</v>
       </c>
@@ -11876,7 +11954,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="16">
         <v>44985</v>
       </c>
@@ -11884,7 +11962,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="16">
         <v>44986</v>
       </c>
@@ -11892,7 +11970,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="16">
         <v>44987</v>
       </c>
@@ -11900,7 +11978,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="16">
         <v>44988</v>
       </c>
@@ -11908,7 +11986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="16">
         <v>44989</v>
       </c>
@@ -11916,7 +11994,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="16">
         <v>44990</v>
       </c>
@@ -11924,7 +12002,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="16">
         <v>44991</v>
       </c>
@@ -11932,7 +12010,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="16">
         <v>44992</v>
       </c>
@@ -11940,7 +12018,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="16">
         <v>44993</v>
       </c>
@@ -11948,7 +12026,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="16">
         <v>44994</v>
       </c>
@@ -11956,7 +12034,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="16">
         <v>44995</v>
       </c>
@@ -11964,7 +12042,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="16">
         <v>44996</v>
       </c>
@@ -11972,7 +12050,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="16">
         <v>44997</v>
       </c>
@@ -11980,7 +12058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="16">
         <v>44998</v>
       </c>
@@ -11988,7 +12066,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="16">
         <v>44999</v>
       </c>
@@ -11996,7 +12074,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="16">
         <v>45000</v>
       </c>
@@ -12004,7 +12082,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="16">
         <v>45001</v>
       </c>
@@ -12012,7 +12090,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="16">
         <v>45002</v>
       </c>
@@ -12020,7 +12098,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="16">
         <v>45003</v>
       </c>
@@ -12028,7 +12106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="16">
         <v>45004</v>
       </c>
@@ -12036,7 +12114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="16">
         <v>45005</v>
       </c>
@@ -12044,7 +12122,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="16">
         <v>45006</v>
       </c>
@@ -12052,7 +12130,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="16">
         <v>45007</v>
       </c>
@@ -12060,7 +12138,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="16">
         <v>45008</v>
       </c>
@@ -12068,7 +12146,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="16">
         <v>45009</v>
       </c>
@@ -12076,7 +12154,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="16">
         <v>45010</v>
       </c>
@@ -12084,7 +12162,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="16">
         <v>45011</v>
       </c>
@@ -12092,7 +12170,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="16">
         <v>45012</v>
       </c>
@@ -12100,7 +12178,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="16">
         <v>45013</v>
       </c>
@@ -12108,7 +12186,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="16">
         <v>45014</v>
       </c>
@@ -12116,7 +12194,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="16">
         <v>45015</v>
       </c>
@@ -12124,7 +12202,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="16">
         <v>45016</v>
       </c>
@@ -12132,7 +12210,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="16">
         <v>45017</v>
       </c>
@@ -12140,7 +12218,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="16">
         <v>45018</v>
       </c>
@@ -12148,7 +12226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="16">
         <v>45019</v>
       </c>
@@ -12156,7 +12234,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="16">
         <v>45020</v>
       </c>
@@ -12164,7 +12242,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="16">
         <v>45021</v>
       </c>
@@ -12172,7 +12250,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="16">
         <v>45022</v>
       </c>
@@ -12180,7 +12258,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="16">
         <v>45023</v>
       </c>
@@ -12188,7 +12266,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="16">
         <v>45024</v>
       </c>
@@ -12196,7 +12274,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="16">
         <v>45025</v>
       </c>
@@ -12204,7 +12282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="16">
         <v>45026</v>
       </c>
@@ -12212,7 +12290,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="16">
         <v>45027</v>
       </c>
@@ -12220,7 +12298,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="16">
         <v>45028</v>
       </c>
@@ -12228,7 +12306,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="16">
         <v>45029</v>
       </c>
@@ -12236,7 +12314,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="16">
         <v>45030</v>
       </c>
@@ -12244,7 +12322,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="16">
         <v>45031</v>
       </c>
@@ -12252,7 +12330,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="16">
         <v>45032</v>
       </c>
@@ -12260,7 +12338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="16">
         <v>45033</v>
       </c>
@@ -12268,7 +12346,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="16">
         <v>45034</v>
       </c>
@@ -12276,7 +12354,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="16">
         <v>45035</v>
       </c>
@@ -12284,7 +12362,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="16">
         <v>45036</v>
       </c>
@@ -12292,7 +12370,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="16">
         <v>45037</v>
       </c>
@@ -12300,7 +12378,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="16">
         <v>45038</v>
       </c>
@@ -12308,7 +12386,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="16">
         <v>45039</v>
       </c>
@@ -12316,7 +12394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="16">
         <v>45040</v>
       </c>
@@ -12324,7 +12402,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="16">
         <v>45041</v>
       </c>
@@ -12332,7 +12410,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="16">
         <v>45042</v>
       </c>
@@ -12340,7 +12418,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="16">
         <v>45043</v>
       </c>
@@ -12348,7 +12426,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="16">
         <v>45044</v>
       </c>
@@ -12356,7 +12434,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="16">
         <v>45045</v>
       </c>
@@ -12364,7 +12442,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="16">
         <v>45046</v>
       </c>
@@ -12372,7 +12450,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="16">
         <v>45047</v>
       </c>
@@ -12380,7 +12458,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="16">
         <v>45048</v>
       </c>
@@ -12388,7 +12466,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="16">
         <v>45049</v>
       </c>
@@ -12396,7 +12474,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="16">
         <v>45050</v>
       </c>
@@ -12404,7 +12482,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="16">
         <v>45051</v>
       </c>
@@ -12412,7 +12490,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="16">
         <v>45052</v>
       </c>
@@ -12420,7 +12498,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="16">
         <v>45053</v>
       </c>
@@ -12428,7 +12506,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="16">
         <v>45054</v>
       </c>
@@ -12436,7 +12514,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="16">
         <v>45055</v>
       </c>
@@ -12444,7 +12522,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="16">
         <v>45056</v>
       </c>
@@ -12452,7 +12530,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="16">
         <v>45057</v>
       </c>
@@ -12460,7 +12538,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="16">
         <v>45058</v>
       </c>
@@ -12468,7 +12546,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="16">
         <v>45059</v>
       </c>
@@ -12476,7 +12554,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="16">
         <v>45060</v>
       </c>
@@ -12484,7 +12562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="16">
         <v>45061</v>
       </c>
@@ -12492,7 +12570,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="16">
         <v>45062</v>
       </c>
@@ -12500,7 +12578,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="16">
         <v>45063</v>
       </c>
@@ -12508,7 +12586,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="16">
         <v>45064</v>
       </c>
@@ -12516,7 +12594,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="16">
         <v>45065</v>
       </c>
@@ -12524,7 +12602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="16">
         <v>45066</v>
       </c>
@@ -12532,7 +12610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="16">
         <v>45067</v>
       </c>
@@ -12540,7 +12618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="16">
         <v>45068</v>
       </c>
@@ -12548,7 +12626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="16">
         <v>45069</v>
       </c>
@@ -12556,7 +12634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="16">
         <v>45070</v>
       </c>
@@ -12564,7 +12642,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="16">
         <v>45071</v>
       </c>
@@ -12572,7 +12650,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="16">
         <v>45072</v>
       </c>
@@ -12580,7 +12658,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="16">
         <v>45073</v>
       </c>
@@ -12588,7 +12666,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="16">
         <v>45074</v>
       </c>
@@ -12596,7 +12674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="16">
         <v>45075</v>
       </c>
@@ -12604,7 +12682,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="16">
         <v>45076</v>
       </c>
@@ -12612,7 +12690,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="16">
         <v>45077</v>
       </c>
@@ -12620,7 +12698,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="16">
         <v>45078</v>
       </c>
@@ -12628,7 +12706,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="16">
         <v>45079</v>
       </c>
@@ -12636,7 +12714,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="16">
         <v>45080</v>
       </c>
@@ -12644,7 +12722,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="16">
         <v>45081</v>
       </c>
@@ -12652,7 +12730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="16">
         <v>45082</v>
       </c>
@@ -12660,7 +12738,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="16">
         <v>45083</v>
       </c>
@@ -12668,7 +12746,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="16">
         <v>45084</v>
       </c>
@@ -12676,7 +12754,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="16">
         <v>45085</v>
       </c>
@@ -12684,7 +12762,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="16">
         <v>45086</v>
       </c>
@@ -12692,7 +12770,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="16">
         <v>45087</v>
       </c>
@@ -12700,7 +12778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="16">
         <v>45088</v>
       </c>
@@ -12708,7 +12786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="16">
         <v>45089</v>
       </c>
@@ -12716,7 +12794,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="16">
         <v>45090</v>
       </c>
@@ -12724,7 +12802,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="16">
         <v>45091</v>
       </c>
@@ -12732,7 +12810,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="16">
         <v>45092</v>
       </c>
@@ -12740,7 +12818,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="16">
         <v>45093</v>
       </c>
@@ -12748,7 +12826,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="16">
         <v>45094</v>
       </c>
@@ -12756,7 +12834,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="16">
         <v>45095</v>
       </c>
@@ -12764,7 +12842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="16">
         <v>45096</v>
       </c>
@@ -12772,7 +12850,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="16">
         <v>45097</v>
       </c>
@@ -12780,7 +12858,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="16">
         <v>45098</v>
       </c>
@@ -12788,7 +12866,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="16">
         <v>45099</v>
       </c>
@@ -12796,7 +12874,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="16">
         <v>45100</v>
       </c>
@@ -12804,7 +12882,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="16">
         <v>45101</v>
       </c>
@@ -12812,7 +12890,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="16">
         <v>45102</v>
       </c>
@@ -12820,7 +12898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="16">
         <v>45103</v>
       </c>
@@ -12828,7 +12906,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="16">
         <v>45104</v>
       </c>
@@ -12836,7 +12914,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="16">
         <v>45105</v>
       </c>
@@ -12844,7 +12922,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="16">
         <v>45106</v>
       </c>
@@ -12852,7 +12930,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="16">
         <v>45107</v>
       </c>
@@ -12860,7 +12938,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="16">
         <v>45108</v>
       </c>
@@ -12868,7 +12946,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="16">
         <v>45109</v>
       </c>
@@ -12876,7 +12954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="16">
         <v>45110</v>
       </c>
@@ -12884,7 +12962,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="16">
         <v>45111</v>
       </c>
@@ -12892,7 +12970,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="16">
         <v>45112</v>
       </c>
@@ -12900,7 +12978,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="16">
         <v>45113</v>
       </c>
@@ -12908,7 +12986,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="16">
         <v>45114</v>
       </c>
@@ -12916,7 +12994,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="16">
         <v>45115</v>
       </c>
@@ -12924,7 +13002,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="16">
         <v>45116</v>
       </c>
@@ -12932,7 +13010,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="16">
         <v>45117</v>
       </c>
@@ -12940,7 +13018,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="16">
         <v>45118</v>
       </c>
@@ -12948,7 +13026,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="16">
         <v>45119</v>
       </c>
@@ -12956,7 +13034,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="16">
         <v>45120</v>
       </c>
@@ -12964,7 +13042,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="16">
         <v>45121</v>
       </c>
@@ -12972,7 +13050,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="16">
         <v>45122</v>
       </c>
@@ -12980,7 +13058,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="16">
         <v>45123</v>
       </c>
@@ -12988,7 +13066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="16">
         <v>45124</v>
       </c>
@@ -12996,7 +13074,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="16">
         <v>45125</v>
       </c>
@@ -13004,7 +13082,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="16">
         <v>45126</v>
       </c>
@@ -13012,7 +13090,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="16">
         <v>45127</v>
       </c>
@@ -13020,7 +13098,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="16">
         <v>45128</v>
       </c>
@@ -13028,7 +13106,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="16">
         <v>45129</v>
       </c>
@@ -13036,7 +13114,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="16">
         <v>45130</v>
       </c>
@@ -13044,7 +13122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="16">
         <v>45131</v>
       </c>
@@ -13052,7 +13130,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="16">
         <v>45132</v>
       </c>
@@ -13060,7 +13138,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="16">
         <v>45133</v>
       </c>
@@ -13068,7 +13146,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="16">
         <v>45134</v>
       </c>
@@ -13076,7 +13154,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="16">
         <v>45135</v>
       </c>
@@ -13084,7 +13162,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="16">
         <v>45136</v>
       </c>
@@ -13092,7 +13170,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="16">
         <v>45137</v>
       </c>
@@ -13100,7 +13178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="16">
         <v>45138</v>
       </c>
@@ -13108,7 +13186,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="16">
         <v>45139</v>
       </c>
@@ -13116,7 +13194,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="16">
         <v>45140</v>
       </c>
@@ -13124,7 +13202,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="16">
         <v>45141</v>
       </c>
@@ -13132,7 +13210,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="16">
         <v>45142</v>
       </c>
@@ -13140,7 +13218,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="16">
         <v>45143</v>
       </c>
@@ -13148,7 +13226,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="16">
         <v>45144</v>
       </c>
@@ -13156,7 +13234,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="16">
         <v>45145</v>
       </c>
@@ -13164,7 +13242,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="16">
         <v>45146</v>
       </c>
@@ -13172,7 +13250,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="16">
         <v>45147</v>
       </c>
@@ -13180,7 +13258,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="16">
         <v>45148</v>
       </c>
@@ -13188,7 +13266,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="16">
         <v>45149</v>
       </c>
@@ -13196,7 +13274,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="16">
         <v>45150</v>
       </c>
@@ -13204,7 +13282,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="16">
         <v>45151</v>
       </c>
@@ -13212,7 +13290,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="16">
         <v>45152</v>
       </c>
@@ -13220,7 +13298,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="16">
         <v>45153</v>
       </c>
@@ -13228,7 +13306,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="16">
         <v>45154</v>
       </c>
@@ -13236,7 +13314,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="16">
         <v>45155</v>
       </c>
@@ -13244,7 +13322,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="16">
         <v>45156</v>
       </c>
@@ -13252,7 +13330,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="16">
         <v>45157</v>
       </c>
@@ -13260,7 +13338,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="16">
         <v>45158</v>
       </c>
@@ -13268,7 +13346,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="16">
         <v>45159</v>
       </c>
@@ -13276,7 +13354,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="16">
         <v>45160</v>
       </c>
@@ -13284,7 +13362,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="16">
         <v>45161</v>
       </c>
@@ -13292,7 +13370,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="16">
         <v>45162</v>
       </c>
@@ -13300,7 +13378,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="16">
         <v>45163</v>
       </c>
@@ -13308,7 +13386,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="16">
         <v>45164</v>
       </c>
@@ -13316,7 +13394,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="16">
         <v>45165</v>
       </c>
@@ -13324,7 +13402,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="16">
         <v>45166</v>
       </c>
@@ -13332,7 +13410,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="16">
         <v>45167</v>
       </c>
@@ -13340,7 +13418,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="16">
         <v>45168</v>
       </c>
@@ -13348,7 +13426,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="16">
         <v>45169</v>
       </c>
@@ -13356,7 +13434,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="16">
         <v>45170</v>
       </c>
@@ -13364,7 +13442,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="16">
         <v>45171</v>
       </c>
@@ -13372,7 +13450,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="16">
         <v>45172</v>
       </c>
@@ -13380,7 +13458,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="16">
         <v>45173</v>
       </c>
@@ -13388,7 +13466,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="16">
         <v>45174</v>
       </c>
@@ -13396,7 +13474,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="16">
         <v>45175</v>
       </c>
@@ -13404,7 +13482,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="16">
         <v>45176</v>
       </c>
@@ -13412,7 +13490,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="16">
         <v>45177</v>
       </c>
@@ -13420,7 +13498,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="16">
         <v>45178</v>
       </c>
@@ -13428,7 +13506,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="16">
         <v>45179</v>
       </c>
@@ -13436,7 +13514,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="16">
         <v>45180</v>
       </c>
@@ -13444,7 +13522,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="16">
         <v>45181</v>
       </c>
@@ -13452,7 +13530,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="16">
         <v>45182</v>
       </c>
@@ -13460,7 +13538,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="16">
         <v>45183</v>
       </c>
@@ -13468,7 +13546,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="16">
         <v>45184</v>
       </c>
@@ -13476,7 +13554,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="16">
         <v>45185</v>
       </c>
@@ -13484,7 +13562,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="16">
         <v>45186</v>
       </c>
@@ -13492,7 +13570,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="16">
         <v>45187</v>
       </c>
@@ -13500,7 +13578,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="16">
         <v>45188</v>
       </c>
@@ -13508,7 +13586,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="16">
         <v>45189</v>
       </c>
@@ -13516,7 +13594,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="16">
         <v>45190</v>
       </c>
@@ -13524,7 +13602,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="16">
         <v>45191</v>
       </c>
@@ -13532,7 +13610,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="16">
         <v>45192</v>
       </c>
@@ -13540,7 +13618,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="16">
         <v>45193</v>
       </c>
@@ -13548,7 +13626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="16">
         <v>45194</v>
       </c>
@@ -13556,7 +13634,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="16">
         <v>45195</v>
       </c>
@@ -13564,7 +13642,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="16">
         <v>45196</v>
       </c>
@@ -13572,7 +13650,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="16">
         <v>45197</v>
       </c>
@@ -13580,7 +13658,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="16">
         <v>45198</v>
       </c>
@@ -13588,7 +13666,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="16">
         <v>45199</v>
       </c>
@@ -13596,7 +13674,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="16">
         <v>45200</v>
       </c>
@@ -13604,7 +13682,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="16">
         <v>45201</v>
       </c>
@@ -13612,7 +13690,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="16">
         <v>45202</v>
       </c>
@@ -13620,7 +13698,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="16">
         <v>45203</v>
       </c>
@@ -13628,7 +13706,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="16">
         <v>45204</v>
       </c>
@@ -13636,7 +13714,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="16">
         <v>45205</v>
       </c>
@@ -13644,7 +13722,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="16">
         <v>45206</v>
       </c>
@@ -13652,7 +13730,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="16">
         <v>45207</v>
       </c>
@@ -13660,7 +13738,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="16">
         <v>45208</v>
       </c>
@@ -13668,7 +13746,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="16">
         <v>45209</v>
       </c>
@@ -13676,7 +13754,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="16">
         <v>45210</v>
       </c>
@@ -13684,7 +13762,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="16">
         <v>45211</v>
       </c>
@@ -13692,7 +13770,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="16">
         <v>45212</v>
       </c>
@@ -13700,7 +13778,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="16">
         <v>45213</v>
       </c>
@@ -13708,7 +13786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="16">
         <v>45214</v>
       </c>
@@ -13716,7 +13794,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="16">
         <v>45215</v>
       </c>
@@ -13724,7 +13802,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="16">
         <v>45216</v>
       </c>
@@ -13732,7 +13810,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="16">
         <v>45217</v>
       </c>
@@ -13740,7 +13818,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="16">
         <v>45218</v>
       </c>
@@ -13748,7 +13826,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="16">
         <v>45219</v>
       </c>
@@ -13756,7 +13834,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="16">
         <v>45220</v>
       </c>
@@ -13764,7 +13842,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="16">
         <v>45221</v>
       </c>
@@ -13772,7 +13850,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="16">
         <v>45222</v>
       </c>
@@ -13780,7 +13858,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="16">
         <v>45223</v>
       </c>
@@ -13788,7 +13866,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="16">
         <v>45224</v>
       </c>
@@ -13796,7 +13874,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="16">
         <v>45225</v>
       </c>
@@ -13804,7 +13882,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="16">
         <v>45226</v>
       </c>
@@ -13812,7 +13890,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="16">
         <v>45227</v>
       </c>
@@ -13820,7 +13898,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="16">
         <v>45228</v>
       </c>
@@ -13828,7 +13906,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="16">
         <v>45229</v>
       </c>
@@ -13836,7 +13914,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="16">
         <v>45230</v>
       </c>
@@ -13844,7 +13922,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="16">
         <v>45231</v>
       </c>
@@ -13852,7 +13930,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="16">
         <v>45232</v>
       </c>
@@ -13860,7 +13938,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="16">
         <v>45233</v>
       </c>
@@ -13868,7 +13946,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="16">
         <v>45234</v>
       </c>
@@ -13876,7 +13954,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="16">
         <v>45235</v>
       </c>
@@ -13884,7 +13962,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="16">
         <v>45236</v>
       </c>
@@ -13892,7 +13970,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="16">
         <v>45237</v>
       </c>
@@ -13900,7 +13978,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="16">
         <v>45238</v>
       </c>
@@ -13908,7 +13986,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="16">
         <v>45239</v>
       </c>
@@ -13916,7 +13994,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="16">
         <v>45240</v>
       </c>
@@ -13924,7 +14002,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="16">
         <v>45241</v>
       </c>
@@ -13932,7 +14010,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="16">
         <v>45242</v>
       </c>
@@ -13940,7 +14018,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="16">
         <v>45243</v>
       </c>
@@ -13948,7 +14026,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="16">
         <v>45244</v>
       </c>
@@ -13956,7 +14034,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="16">
         <v>45245</v>
       </c>
@@ -13964,7 +14042,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="16">
         <v>45246</v>
       </c>
@@ -13972,7 +14050,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="16">
         <v>45247</v>
       </c>
@@ -13980,7 +14058,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="16">
         <v>45248</v>
       </c>
@@ -13988,7 +14066,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="16">
         <v>45249</v>
       </c>
@@ -13996,7 +14074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="16">
         <v>45250</v>
       </c>
@@ -14004,7 +14082,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="16">
         <v>45251</v>
       </c>
@@ -14012,7 +14090,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="16">
         <v>45252</v>
       </c>
@@ -14020,7 +14098,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="16">
         <v>45253</v>
       </c>
@@ -14028,7 +14106,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="16">
         <v>45254</v>
       </c>
@@ -14036,7 +14114,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="16">
         <v>45255</v>
       </c>
@@ -14044,7 +14122,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="16">
         <v>45256</v>
       </c>
@@ -14052,7 +14130,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="16">
         <v>45257</v>
       </c>
@@ -14060,7 +14138,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="16">
         <v>45258</v>
       </c>
@@ -14068,7 +14146,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="16">
         <v>45259</v>
       </c>
@@ -14076,7 +14154,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="16">
         <v>45260</v>
       </c>
@@ -14084,7 +14162,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="16">
         <v>45261</v>
       </c>
@@ -14092,7 +14170,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="16">
         <v>45262</v>
       </c>
@@ -14100,7 +14178,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="16">
         <v>45263</v>
       </c>
@@ -14108,7 +14186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="16">
         <v>45264</v>
       </c>
@@ -14116,7 +14194,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="16">
         <v>45265</v>
       </c>
@@ -14124,7 +14202,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="16">
         <v>45266</v>
       </c>
@@ -14132,7 +14210,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="16">
         <v>45267</v>
       </c>
@@ -14140,7 +14218,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="16">
         <v>45268</v>
       </c>
@@ -14148,7 +14226,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="16">
         <v>45269</v>
       </c>
@@ -14156,7 +14234,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="16">
         <v>45270</v>
       </c>
@@ -14164,7 +14242,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="16">
         <v>45271</v>
       </c>
@@ -14172,7 +14250,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="16">
         <v>45272</v>
       </c>
@@ -14180,7 +14258,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="16">
         <v>45273</v>
       </c>
@@ -14188,7 +14266,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="16">
         <v>45274</v>
       </c>
@@ -14196,7 +14274,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="16">
         <v>45275</v>
       </c>
@@ -14204,7 +14282,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="16">
         <v>45276</v>
       </c>
@@ -14212,7 +14290,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="16">
         <v>45277</v>
       </c>
@@ -14220,7 +14298,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="16">
         <v>45278</v>
       </c>
@@ -14228,7 +14306,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="16">
         <v>45279</v>
       </c>
@@ -14236,7 +14314,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="16">
         <v>45280</v>
       </c>
@@ -14244,7 +14322,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="16">
         <v>45281</v>
       </c>
@@ -14252,7 +14330,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="16">
         <v>45282</v>
       </c>
@@ -14260,7 +14338,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="16">
         <v>45283</v>
       </c>
@@ -14268,7 +14346,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="16">
         <v>45284</v>
       </c>
@@ -14276,7 +14354,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="16">
         <v>45285</v>
       </c>
@@ -14284,7 +14362,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="16">
         <v>45286</v>
       </c>
@@ -14292,7 +14370,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="16">
         <v>45287</v>
       </c>
@@ -14300,7 +14378,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="16">
         <v>45288</v>
       </c>
@@ -14308,7 +14386,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="16">
         <v>45289</v>
       </c>
@@ -14316,7 +14394,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="16">
         <v>45290</v>
       </c>
@@ -14324,7 +14402,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="16">
         <v>45291</v>
       </c>
@@ -14341,7 +14419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="16">
         <v>45292</v>
       </c>
@@ -14358,7 +14436,7 @@
         <v>91.082101975609092</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="16">
         <v>45293</v>
       </c>
@@ -14375,7 +14453,7 @@
         <v>108.60944441751434</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="16">
         <v>45294</v>
       </c>
@@ -14392,7 +14470,7 @@
         <v>128.89782976567901</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="16">
         <v>45295</v>
       </c>
@@ -14409,7 +14487,7 @@
         <v>114.0043898950388</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="16">
         <v>45296</v>
       </c>
@@ -14426,7 +14504,7 @@
         <v>120.84721987178813</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="16">
         <v>45297</v>
       </c>
@@ -14443,7 +14521,7 @@
         <v>88.188981163860248</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="16">
         <v>45298</v>
       </c>
@@ -14460,7 +14538,7 @@
         <v>84.430316851141455</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="16">
         <v>45299</v>
       </c>
@@ -14477,7 +14555,7 @@
         <v>103.80541427071509</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="16">
         <v>45300</v>
       </c>
@@ -14494,7 +14572,7 @@
         <v>121.08177689373906</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="16">
         <v>45301</v>
       </c>
@@ -14511,7 +14589,7 @@
         <v>141.13666505707897</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="16">
         <v>45302</v>
       </c>
@@ -14528,7 +14606,7 @@
         <v>126.02533769889708</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="16">
         <v>45303</v>
       </c>
@@ -14545,7 +14623,7 @@
         <v>132.66428855231021</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="16">
         <v>45304</v>
       </c>
@@ -14562,7 +14640,7 @@
         <v>99.814800243655895</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="16">
         <v>45305</v>
       </c>
@@ -14579,7 +14657,7 @@
         <v>95.876320923049803</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="16">
         <v>45306</v>
       </c>
@@ -14596,7 +14674,7 @@
         <v>114.54444284962325</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="16">
         <v>45307</v>
       </c>
@@ -14613,7 +14691,7 @@
         <v>131.68871565970474</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="16">
         <v>45308</v>
       </c>
@@ -14630,7 +14708,7 @@
         <v>151.6179808179059</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="16">
         <v>45309</v>
       </c>
@@ -14647,7 +14725,7 @@
         <v>136.38702300930828</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="16">
         <v>45310</v>
       </c>
@@ -14664,7 +14742,7 @@
         <v>142.91190899353234</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="16">
         <v>45311</v>
       </c>
@@ -14681,7 +14759,7 @@
         <v>109.95353578652322</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="16">
         <v>45312</v>
       </c>
@@ -14698,7 +14776,7 @@
         <v>105.9110022592938</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="16">
         <v>45313</v>
       </c>
@@ -14715,7 +14793,7 @@
         <v>124.13604096757588</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="16">
         <v>45314</v>
       </c>
@@ -14732,7 +14810,7 @@
         <v>141.1985850685669</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="16">
         <v>45315</v>
       </c>
@@ -14749,7 +14827,7 @@
         <v>161.0492727919102</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="16">
         <v>45316</v>
       </c>
@@ -14766,7 +14844,7 @@
         <v>145.74271277474386</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="16">
         <v>45317</v>
       </c>
@@ -14783,7 +14861,7 @@
         <v>152.19480911597776</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="16">
         <v>45318</v>
       </c>
@@ -14800,7 +14878,7 @@
         <v>119.1663082756491</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="16">
         <v>45319</v>
       </c>
@@ -14817,7 +14895,7 @@
         <v>115.0561695386133</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="16">
         <v>45320</v>
       </c>
@@ -14834,7 +14912,7 @@
         <v>132.97265828743019</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="16">
         <v>45321</v>
       </c>
@@ -14851,7 +14929,7 @@
         <v>149.9801110359133</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="16">
         <v>45322</v>
       </c>
@@ -14868,7 +14946,7 @@
         <v>169.77749222482299</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" s="16">
         <v>45323</v>
       </c>
@@ -14885,7 +14963,7 @@
         <v>154.41932998190237</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="16">
         <v>45324</v>
       </c>
@@ -14902,7 +14980,7 @@
         <v>160.82145283787935</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="16">
         <v>45325</v>
       </c>
@@ -14919,7 +14997,7 @@
         <v>127.74453624292377</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="16">
         <v>45326</v>
       </c>
@@ -14936,7 +15014,7 @@
         <v>123.58747268312683</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="16">
         <v>45327</v>
       </c>
@@ -14953,7 +15031,7 @@
         <v>141.27471897589942</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="16">
         <v>45328</v>
       </c>
@@ -14970,7 +15048,7 @@
         <v>158.24307791444937</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="16">
         <v>45329</v>
       </c>
@@ -14987,7 +15065,7 @@
         <v>178.00247704348993</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="16">
         <v>45330</v>
       </c>
@@ -15004,7 +15082,7 @@
         <v>162.6074024698901</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="16">
         <v>45331</v>
       </c>
@@ -15021,7 +15099,7 @@
         <v>168.97364286074279</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="16">
         <v>45332</v>
       </c>
@@ -15038,7 +15116,7 @@
         <v>135.86183581978514</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="16">
         <v>45333</v>
       </c>
@@ -15055,7 +15133,7 @@
         <v>131.67083787479555</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="16">
         <v>45334</v>
       </c>
@@ -15072,7 +15150,7 @@
         <v>149.18010908086339</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="16">
         <v>45335</v>
       </c>
@@ -15089,7 +15167,7 @@
         <v>166.11981319640745</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="16">
         <v>45336</v>
       </c>
@@ -15106,7 +15184,7 @@
         <v>185.85129688130877</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="16">
         <v>45337</v>
       </c>
@@ -15123,7 +15201,7 @@
         <v>170.42902221255352</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="16">
         <v>45338</v>
       </c>
@@ -15140,7 +15218,7 @@
         <v>176.7687548850036</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="16">
         <v>45339</v>
       </c>
@@ -15157,7 +15235,7 @@
         <v>143.63111052889724</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="16">
         <v>45340</v>
       </c>
@@ -15174,7 +15252,7 @@
         <v>139.41492464228696</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="16">
         <v>45341</v>
       </c>
@@ -15191,7 +15269,7 @@
         <v>156.78155512145636</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" s="16">
         <v>45342</v>
       </c>
@@ -15208,7 +15286,7 @@
         <v>173.69982765844247</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="16">
         <v>45343</v>
       </c>
@@ -15225,7 +15303,7 @@
         <v>193.41039550493343</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" s="16">
         <v>45344</v>
       </c>
@@ -15242,7 +15320,7 @@
         <v>177.96770604697795</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" s="16">
         <v>45345</v>
       </c>
@@ -15259,7 +15337,7 @@
         <v>184.28751085294397</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" s="16">
         <v>45346</v>
       </c>
@@ -15276,7 +15354,7 @@
         <v>151.13041196355675</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" s="16">
         <v>45347</v>
       </c>
@@ -15293,7 +15371,7 @@
         <v>146.89523179848808</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" s="16">
         <v>45348</v>
       </c>
@@ -15310,7 +15388,7 @@
         <v>164.14475274742398</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" s="16">
         <v>45349</v>
       </c>
@@ -15327,7 +15405,7 @@
         <v>181.04681490076092</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" s="16">
         <v>45350</v>
       </c>
@@ -15344,7 +15422,7 @@
         <v>200.74154531095661</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" s="16">
         <v>45351</v>
       </c>
@@ -15361,7 +15439,7 @@
         <v>185.2833819142939</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" s="16">
         <v>45352</v>
       </c>
@@ -15378,7 +15456,7 @@
         <v>191.5880671506759</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" s="16">
         <v>45353</v>
       </c>
@@ -15395,7 +15473,7 @@
         <v>158.41619423982786</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" s="16">
         <v>45354</v>
       </c>
@@ -15412,7 +15490,7 @@
         <v>154.16657707477108</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" s="16">
         <v>45355</v>
       </c>
@@ -15429,7 +15507,7 @@
         <v>171.31811870628047</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" s="16">
         <v>45356</v>
       </c>
@@ -15446,7 +15524,7 @@
         <v>188.20787409357482</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" s="16">
         <v>45357</v>
       </c>
@@ -15463,7 +15541,7 @@
         <v>207.89057508169429</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" s="16">
         <v>45358</v>
       </c>
@@ -15480,7 +15558,7 @@
         <v>192.42065328172552</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" s="16">
         <v>45359</v>
       </c>
@@ -15497,7 +15575,7 @@
         <v>198.71384500073802</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="16">
         <v>45360</v>
       </c>
@@ -15514,7 +15592,7 @@
         <v>165.53073751057914</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="16">
         <v>45361</v>
       </c>
@@ -15531,7 +15609,7 @@
         <v>161.27013893428622</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" s="16">
         <v>45362</v>
       </c>
@@ -15548,7 +15626,7 @@
         <v>178.33845438269213</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="16">
         <v>45363</v>
       </c>
@@ -15565,7 +15643,7 @@
         <v>195.21890093263508</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="16">
         <v>45364</v>
       </c>
@@ -15582,7 +15660,7 @@
         <v>214.89250394860056</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" s="16">
         <v>45365</v>
       </c>
@@ -15599,7 +15677,7 @@
         <v>199.41369067108494</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" s="16">
         <v>45366</v>
       </c>
@@ -15616,7 +15694,7 @@
         <v>205.6981931564714</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" s="16">
         <v>45367</v>
       </c>
@@ -15633,7 +15711,7 @@
         <v>172.50659454166302</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" s="16">
         <v>45368</v>
       </c>
@@ -15650,7 +15728,7 @@
         <v>168.2376989265085</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" s="16">
         <v>45369</v>
       </c>
@@ -15667,7 +15745,7 @@
         <v>185.2344355157129</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" s="16">
         <v>45370</v>
       </c>
@@ -15684,7 +15762,7 @@
         <v>202.10792637510875</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" s="16">
         <v>45371</v>
       </c>
@@ -15701,7 +15779,7 @@
         <v>221.77473688839063</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" s="16">
         <v>45372</v>
       </c>
@@ -15718,7 +15796,7 @@
         <v>206.28929119713803</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" s="16">
         <v>45373</v>
       </c>
@@ -15735,7 +15813,7 @@
         <v>212.56731833603584</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" s="16">
         <v>45374</v>
       </c>
@@ -15752,7 +15830,7 @@
         <v>179.36939849507615</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" s="16">
         <v>45375</v>
       </c>
@@ -15769,7 +15847,7 @@
         <v>175.09433289964545</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" s="16">
         <v>45376</v>
       </c>
@@ -15786,7 +15864,7 @@
         <v>192.02886644392299</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" s="16">
         <v>45377</v>
       </c>
@@ -15803,7 +15881,7 @@
         <v>208.89728227607435</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" s="16">
         <v>45378</v>
       </c>
@@ -15820,7 +15898,7 @@
         <v>228.55914586736384</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" s="16">
         <v>45379</v>
       </c>
@@ -15837,7 +15915,7 @@
         <v>213.06887911521727</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" s="16">
         <v>45380</v>
       </c>
@@ -15854,7 +15932,7 @@
         <v>219.34220886123816</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" s="16">
         <v>45381</v>
       </c>
@@ -15871,7 +15949,7 @@
         <v>186.13971315194402</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" s="16">
         <v>45382</v>
       </c>
@@ -15888,7 +15966,7 @@
         <v>181.86019111743892</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" s="16">
         <v>45383</v>
       </c>
@@ -15915,24 +15993,580 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22074FD1-D576-BE47-A347-DF0DCE9F0C0C}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="67"/>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="67"/>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="67"/>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="67" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="71">
+        <v>566749.36181874992</v>
+      </c>
+      <c r="E16" s="71">
+        <v>640000.47554589238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="69" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="72">
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="72">
+        <v>0.2</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="73">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E22" s="73">
+        <v>3.2275127046292686E-2</v>
+      </c>
+      <c r="F22" s="68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="74">
+        <v>640000.47554589238</v>
+      </c>
+      <c r="E27" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="72">
+        <v>0.2</v>
+      </c>
+      <c r="E28" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="73">
+        <v>3.2275127046292686E-2</v>
+      </c>
+      <c r="E29" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="68">
+        <v>1.7724872953707317E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB1A9FC-3107-F449-B554-6F0DFD2A6BC0}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="68">
+        <v>3.2275127046292686E-2</v>
+      </c>
+      <c r="E10" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="75" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="76" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="68">
+        <v>640000.47554589238</v>
+      </c>
+      <c r="E15" s="68">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD46F737-8C18-4142-8772-E4676ADC9145}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="75"/>
+      <c r="C6" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="75"/>
+    </row>
+    <row r="7" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="71">
+        <v>640000.47554589238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="75"/>
+      <c r="C11" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="75"/>
+      <c r="F11" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="75" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="72">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="72">
+        <v>0</v>
+      </c>
+      <c r="G13" s="74">
+        <v>85</v>
+      </c>
+      <c r="I13" s="72">
+        <v>250</v>
+      </c>
+      <c r="J13" s="74">
+        <v>18835</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="73">
+        <v>3.2275127046292686E-2</v>
+      </c>
+      <c r="F14" s="73">
+        <v>0</v>
+      </c>
+      <c r="G14" s="71">
+        <v>110</v>
+      </c>
+      <c r="I14" s="73">
+        <v>398.5</v>
+      </c>
+      <c r="J14" s="71">
+        <v>20035</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAB43CA-5103-49AE-8216-4AB866E06AE4}">
   <dimension ref="B1:H14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.5234375" customWidth="1"/>
-    <col min="3" max="3" width="11.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="6.68359375" customWidth="1"/>
-    <col min="8" max="8" width="11.62890625" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="65" t="s">
         <v>4</v>
       </c>
@@ -15950,7 +16584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -15970,12 +16604,12 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="46">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E4" s="43" t="s">
         <v>19</v>
@@ -15990,12 +16624,12 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="47">
-        <v>1.4999999999999999E-2</v>
+        <v>3.2275127046292686E-2</v>
       </c>
       <c r="E5" s="57" t="s">
         <v>21</v>
@@ -16010,7 +16644,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E6" s="61" t="s">
         <v>77</v>
       </c>
@@ -16025,13 +16659,13 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="65" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="66"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -16039,58 +16673,58 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
         <v>0</v>
       </c>
       <c r="C9" s="2">
         <f>(base*(1+raise)^B9)*(1+bonus)</f>
-        <v>110000.00000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <v>1</v>
       </c>
       <c r="C10" s="2">
         <f>(base*(1+raise)^B10)*(1+bonus)</f>
-        <v>111650</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>123873.01524555511</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="4">
         <v>2</v>
       </c>
       <c r="C11" s="2">
         <f>(base*(1+raise)^B11)*(1+bonus)</f>
-        <v>113324.74999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>127871.03255021274</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <v>3</v>
       </c>
       <c r="C12" s="2">
         <f>(base*(1+raise)^B12)*(1+bonus)</f>
-        <v>115024.62124999997</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>131998.08637131148</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="36">
         <v>4</v>
       </c>
       <c r="C13" s="37">
         <f>(base*(1+raise)^B13)*(1+bonus)</f>
-        <v>116749.99056874996</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+        <v>136258.34137881306</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="34" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="35">
         <f>SUM(C9:C13)</f>
-        <v>566749.36181874992</v>
+        <v>640000.47554589238</v>
       </c>
     </row>
   </sheetData>
@@ -16102,7 +16736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A599BE6-2460-4FFE-AEBD-9B11D5253C2E}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -16113,14 +16747,14 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.62890625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.5234375" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11.5" bestFit="1" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:7" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="22" t="s">
         <v>22</v>
       </c>
@@ -16130,7 +16764,7 @@
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
     </row>
-    <row r="3" spans="2:7" ht="15.6" collapsed="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:7" ht="16" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="28" t="s">
@@ -16146,7 +16780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="63" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
       <c r="E4" s="32" t="s">
@@ -16159,7 +16793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
         <v>23</v>
       </c>
@@ -16169,7 +16803,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24"/>
       <c r="C6" s="24" t="s">
         <v>14</v>
@@ -16187,7 +16821,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="7" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24"/>
       <c r="C7" s="24" t="s">
         <v>15</v>
@@ -16205,7 +16839,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24"/>
       <c r="C8" s="24" t="s">
         <v>16</v>
@@ -16223,7 +16857,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>25</v>
       </c>
@@ -16233,7 +16867,7 @@
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24"/>
       <c r="C10" s="24" t="s">
         <v>31</v>
@@ -16251,7 +16885,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="11" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B11" s="24"/>
       <c r="C11" s="24" t="s">
         <v>36</v>
@@ -16269,7 +16903,7 @@
         <v>127008</v>
       </c>
     </row>
-    <row r="12" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B12" s="24"/>
       <c r="C12" s="24" t="s">
         <v>32</v>
@@ -16287,7 +16921,7 @@
         <v>128024.064</v>
       </c>
     </row>
-    <row r="13" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B13" s="24"/>
       <c r="C13" s="24" t="s">
         <v>33</v>
@@ -16305,7 +16939,7 @@
         <v>129048.25651200001</v>
       </c>
     </row>
-    <row r="14" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24"/>
       <c r="C14" s="24" t="s">
         <v>34</v>
@@ -16323,7 +16957,7 @@
         <v>130080.64256409599</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="14.7" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:7" ht="16" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="26"/>
       <c r="C15" s="26" t="s">
         <v>35</v>
@@ -16341,17 +16975,17 @@
         <v>640160.96307609603</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -16361,93 +16995,93 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16C6870-2130-42B8-85C2-144B24EA12A8}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.1015625" customWidth="1"/>
-    <col min="2" max="2" width="5.89453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7890625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.9453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.68359375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" collapsed="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" collapsed="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="14" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:5" collapsed="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="49" t="s">
         <v>50</v>
       </c>
@@ -16461,7 +17095,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="48" t="s">
         <v>29</v>
       </c>
@@ -16475,12 +17109,12 @@
         <v>640000.63710000005</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="49" t="s">
         <v>50</v>
       </c>
@@ -16497,7 +17131,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="50" t="s">
         <v>60</v>
       </c>
@@ -16514,7 +17148,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="48" t="s">
         <v>62</v>
       </c>
@@ -16531,12 +17165,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="49" t="s">
         <v>50</v>
       </c>
@@ -16556,7 +17190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" s="50" t="s">
         <v>29</v>
       </c>
@@ -16576,7 +17210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="50" t="s">
         <v>60</v>
       </c>
@@ -16596,7 +17230,7 @@
         <v>4.4529543036313624E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="48" t="s">
         <v>62</v>
       </c>
@@ -16621,7 +17255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B251B97-0E72-44DD-A752-20F45B6DB03B}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -16629,44 +17263,43 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.1015625" customWidth="1"/>
-    <col min="2" max="2" width="5.89453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.3671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.1015625" customWidth="1"/>
-    <col min="6" max="6" width="5.5234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.1015625" customWidth="1"/>
-    <col min="9" max="9" width="5.62890625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.1640625" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="55"/>
       <c r="C6" s="55" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="55"/>
     </row>
-    <row r="7" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="56" t="s">
         <v>50</v>
       </c>
@@ -16677,7 +17310,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="48" t="s">
         <v>29</v>
       </c>
@@ -16688,8 +17321,8 @@
         <v>640000.63710000005</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="55"/>
       <c r="C11" s="55" t="s">
         <v>72</v>
@@ -16708,7 +17341,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="56" t="s">
         <v>50</v>
       </c>
@@ -16731,7 +17364,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="50" t="s">
         <v>60</v>
       </c>
@@ -16754,7 +17387,7 @@
         <v>663641.98</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="48" t="s">
         <v>62</v>
       </c>
